--- a/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
@@ -1,37 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCCSE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TCCSE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +264,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +283,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,812 +580,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1971</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>1973</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>1974</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>1975</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>1976</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>1977</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>1978</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>1979</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>1980</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>1982</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>1983</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>1984</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>1985</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>1986</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>1987</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>1988</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>1989</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>1990</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>1991</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>1992</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>1993</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>1995</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>1996</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>1997</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>1998</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>1999</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>2001</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>2002</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>2003</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>2004</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>2006</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>2007</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>2008</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>2009</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>2010</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>2011</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>2012</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>2013</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="AZ1" s="1" t="n">
-        <v>2020</v>
+    <row r="1" spans="1:66">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:66">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
         <v>71240</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>74060</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>78180</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>77660</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>85580</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>92170</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>100100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>103780</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>100150</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>105530</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>109320</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>121010</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>130130</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>137290</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>141450</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>155540</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>166840</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>179209</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>192115</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>203424</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>214990</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>232330</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>241750</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>256320</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>269174</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>284040</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>298620</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>306824</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>313476</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>315047</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>325450</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>349740</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>361745</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>379405</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>404691</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>433270</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>462350</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
+        <v>462350</v>
+      </c>
+      <c r="AN2">
         <v>502820</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2">
+        <v>502820</v>
+      </c>
+      <c r="AP2">
         <v>549567</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2">
+        <v>549567</v>
+      </c>
+      <c r="AR2">
         <v>587810</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AS2">
+        <v>587810</v>
+      </c>
+      <c r="AT2">
         <v>593004</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AU2">
+        <v>593004</v>
+      </c>
+      <c r="AV2">
         <v>638734</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2">
+        <v>638734</v>
+      </c>
+      <c r="AX2">
         <v>713389</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AY2">
+        <v>713389</v>
+      </c>
+      <c r="AZ2">
         <v>739342</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="BA2">
+        <v>739342</v>
+      </c>
+      <c r="BB2">
         <v>822131</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="BC2">
+        <v>822131</v>
+      </c>
+      <c r="BD2">
         <v>836727</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BE2">
+        <v>836727</v>
+      </c>
+      <c r="BF2">
         <v>837220</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BG2">
+        <v>837220</v>
+      </c>
+      <c r="BH2">
         <v>898496</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BI2">
+        <v>898496</v>
+      </c>
+      <c r="BJ2">
         <v>968363</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BK2">
+        <v>968363</v>
+      </c>
+      <c r="BL2">
         <v>942630</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="BM2">
+        <v>942630</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Crude Oil</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:66">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
         <v>18510</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>20042</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19328</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>20958</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>21094</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>22070</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>22995</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>24898</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>25974</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>27474</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>26760</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>30146</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>33156</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>35263</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>35556</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>44780</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>45699</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>47754</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>48803</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>51942</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>53720</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>51423</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>53482</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>54296</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>56534</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>62510</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>62870</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>65166</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>68538</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>85964</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>106520</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>107274</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>112559</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>121841</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>127117</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>130110</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>146550</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
+        <v>146550</v>
+      </c>
+      <c r="AN3">
         <v>156100</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3">
+        <v>156100</v>
+      </c>
+      <c r="AP3">
         <v>160772</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3">
+        <v>160772</v>
+      </c>
+      <c r="AR3">
         <v>186550</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AS3">
+        <v>186550</v>
+      </c>
+      <c r="AT3">
         <v>196989.166</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AU3">
+        <v>196989.166</v>
+      </c>
+      <c r="AV3">
         <v>204121.392</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AW3">
+        <v>204121.392</v>
+      </c>
+      <c r="AX3">
         <v>219211.779</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AY3">
+        <v>219211.779</v>
+      </c>
+      <c r="AZ3">
         <v>222496.782</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="BA3">
+        <v>222496.782</v>
+      </c>
+      <c r="BB3">
         <v>223241.778</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="BC3">
+        <v>223241.778</v>
+      </c>
+      <c r="BD3">
         <v>232864.798</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="BE3">
+        <v>232864.798</v>
+      </c>
+      <c r="BF3">
         <v>245362.119</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="BG3">
+        <v>245362.119</v>
+      </c>
+      <c r="BH3">
         <v>251934.819</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BI3">
+        <v>251934.819</v>
+      </c>
+      <c r="BJ3">
         <v>257204.86</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BK3">
+        <v>257204.86</v>
+      </c>
+      <c r="BL3">
         <v>254385.938655425</v>
       </c>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="BM3">
+        <v>254385.938655425</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Natural Gas</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:66">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
         <v>650</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>718</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>771</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>762</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>951</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1130</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>1381</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1464</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1711</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1681</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>1520</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>2222</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>2957</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>3401</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>4141</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>4950</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>7075</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>7968</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>9250</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>11172</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>12770</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>14442</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>16116</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>16340</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>17337</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>18090</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>18632</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>21513</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>22489</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>26885</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>27860</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>28037</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>29964</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>30906</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>30775</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>36390</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>37600</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
+        <v>37600</v>
+      </c>
+      <c r="AN4">
         <v>39800</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4">
+        <v>39800</v>
+      </c>
+      <c r="AP4">
         <v>32989</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4">
+        <v>32989</v>
+      </c>
+      <c r="AR4">
         <v>59410</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AS4">
+        <v>59410</v>
+      </c>
+      <c r="AT4">
         <v>64159.29</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AU4">
+        <v>64159.29</v>
+      </c>
+      <c r="AV4">
         <v>64450.3336248702</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AW4">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="AX4">
         <v>57364.2365398185</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AY4">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="AZ4">
         <v>52371.5768022769</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="BA4">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="BB4">
         <v>51295.7258153303</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="BC4">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="BD4">
         <v>52512.8551574423</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="BE4">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="BF4">
         <v>55697.9176189682</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BG4">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="BH4">
         <v>59170.1564660069</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="BI4">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="BJ4">
         <v>60794.3879625495</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="BK4">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="BL4">
         <v>64143.2120090671</v>
       </c>
-      <c r="AZ4" t="inlineStr"/>
+      <c r="BM4">
+        <v>64143.2120090671</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:66">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
         <v>43724</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>47073</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>49088</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>50246</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>52632</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>60246</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>66639</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>69255</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>77293</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>78084</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>82367</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>90245</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>95589</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>102344</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>114068</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>123099</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>135952</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>145613</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>160196</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>175419</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>190357</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>207645</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>220674</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>238569</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>259629</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>277029</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>280146</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>296749</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>309734</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>312841</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>316600</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>322459</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>339598</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>360937</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>386134</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>118818</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>455749</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
+        <v>455749</v>
+      </c>
+      <c r="AN5">
         <v>501977</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5">
+        <v>501977</v>
+      </c>
+      <c r="AP5">
         <v>553994.713100625</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5">
+        <v>553994.713100625</v>
+      </c>
+      <c r="AR5">
         <v>612644.99</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AS5">
+        <v>612644.99</v>
+      </c>
+      <c r="AT5">
         <v>694392</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AU5">
+        <v>694392</v>
+      </c>
+      <c r="AV5">
         <v>785194</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AW5">
+        <v>785194</v>
+      </c>
+      <c r="AX5">
         <v>824300.99</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AY5">
+        <v>824300.99</v>
+      </c>
+      <c r="AZ5">
         <v>874208.5665</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="BA5">
+        <v>874208.5665</v>
+      </c>
+      <c r="BB5">
         <v>948521.820861349</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="BC5">
+        <v>948521.820861349</v>
+      </c>
+      <c r="BD5">
         <v>1001190.68430858</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="BE5">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="BF5">
         <v>1061182.63826993</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="BG5">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="BH5">
         <v>1123426.8571124</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="BI5">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="BJ5">
         <v>1209971.63286042</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="BK5">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="BL5">
         <v>1291493.75212208</v>
       </c>
-      <c r="AZ5" t="inlineStr"/>
+      <c r="BM5">
+        <v>1291493.75212208</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
@@ -1,255 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TCCSE" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TCCSE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2006-01-01</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2007-01-01</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2008-01-01</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2009-01-01</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2010-01-01</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2011-01-01</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2013-01-01</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2014-01-01</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2016-01-01</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2017-01-01</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Crude Oil</t>
-  </si>
-  <si>
-    <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -264,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -283,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -580,1002 +353,2104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:66">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-01-01</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2007-01-01</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2008-01-01</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2009-01-01</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-01-01</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-01-01</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-01-01</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-01-01</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-01-01</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:66">
-      <c r="A2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>71240</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>74060</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>78180</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>77660</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>85580</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>92170</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>100100</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>103780</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>100150</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>105530</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>109320</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>121010</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>130130</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>137290</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>141450</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>155540</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>166840</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>179209</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>192115</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>203424</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>214990</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>232330</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>241750</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>256320</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>269174</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>284040</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>298620</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>306824</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>313476</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>315047</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>325450</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>349740</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>361745</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>379405</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>404691</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>433270</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>462350</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>462350</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
+        <v>462350</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>462350</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>462350</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>462350</v>
+      </c>
+      <c r="AR2" t="n">
         <v>502820</v>
       </c>
-      <c r="AO2">
+      <c r="AS2" t="n">
         <v>502820</v>
       </c>
-      <c r="AP2">
+      <c r="AT2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="AX2" t="n">
         <v>549567</v>
       </c>
-      <c r="AQ2">
+      <c r="AY2" t="n">
         <v>549567</v>
       </c>
-      <c r="AR2">
+      <c r="AZ2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BD2" t="n">
         <v>587810</v>
       </c>
-      <c r="AS2">
+      <c r="BE2" t="n">
         <v>587810</v>
       </c>
-      <c r="AT2">
+      <c r="BF2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>593004</v>
       </c>
-      <c r="AU2">
+      <c r="BK2" t="n">
         <v>593004</v>
       </c>
-      <c r="AV2">
+      <c r="BL2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BP2" t="n">
         <v>638734</v>
       </c>
-      <c r="AW2">
+      <c r="BQ2" t="n">
         <v>638734</v>
       </c>
-      <c r="AX2">
+      <c r="BR2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="BV2" t="n">
         <v>713389</v>
       </c>
-      <c r="AY2">
+      <c r="BW2" t="n">
         <v>713389</v>
       </c>
-      <c r="AZ2">
+      <c r="BX2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="CB2" t="n">
         <v>739342</v>
       </c>
-      <c r="BA2">
+      <c r="CC2" t="n">
         <v>739342</v>
       </c>
-      <c r="BB2">
+      <c r="CD2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CH2" t="n">
         <v>822131</v>
       </c>
-      <c r="BC2">
+      <c r="CI2" t="n">
         <v>822131</v>
       </c>
-      <c r="BD2">
+      <c r="CJ2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="CN2" t="n">
         <v>836727</v>
       </c>
-      <c r="BE2">
+      <c r="CO2" t="n">
         <v>836727</v>
       </c>
-      <c r="BF2">
+      <c r="CP2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="CT2" t="n">
         <v>837220</v>
       </c>
-      <c r="BG2">
+      <c r="CU2" t="n">
         <v>837220</v>
       </c>
-      <c r="BH2">
+      <c r="CV2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="CZ2" t="n">
         <v>898496</v>
       </c>
-      <c r="BI2">
+      <c r="DA2" t="n">
         <v>898496</v>
       </c>
-      <c r="BJ2">
+      <c r="DB2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="DF2" t="n">
         <v>968363</v>
       </c>
-      <c r="BK2">
+      <c r="DG2" t="n">
         <v>968363</v>
       </c>
-      <c r="BL2">
+      <c r="DH2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="DL2" t="n">
         <v>942630</v>
       </c>
-      <c r="BM2">
+      <c r="DM2" t="n">
         <v>942630</v>
       </c>
+      <c r="DN2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="DR2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:66">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Crude Oil</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>18510</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>20042</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>19328</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>20958</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>21094</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>22070</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>22995</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>24898</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>25974</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>27474</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>26760</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>30146</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>33156</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>35263</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>35556</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>44780</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>45699</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>47754</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>48803</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>51942</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>53720</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>51423</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>53482</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>54296</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>56534</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>62510</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>62870</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>65166</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>68538</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>85964</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>106520</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>107274</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>112559</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>121841</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>127117</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>130110</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>146550</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>146550</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
+        <v>146550</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>146550</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>146550</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>146550</v>
+      </c>
+      <c r="AR3" t="n">
         <v>156100</v>
       </c>
-      <c r="AO3">
+      <c r="AS3" t="n">
         <v>156100</v>
       </c>
-      <c r="AP3">
+      <c r="AT3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="AX3" t="n">
         <v>160772</v>
       </c>
-      <c r="AQ3">
+      <c r="AY3" t="n">
         <v>160772</v>
       </c>
-      <c r="AR3">
+      <c r="AZ3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BD3" t="n">
         <v>186550</v>
       </c>
-      <c r="AS3">
+      <c r="BE3" t="n">
         <v>186550</v>
       </c>
-      <c r="AT3">
+      <c r="BF3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="AU3">
+      <c r="BK3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="AV3">
+      <c r="BL3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BP3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="AW3">
+      <c r="BQ3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="AX3">
+      <c r="BR3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="BV3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="AY3">
+      <c r="BW3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="AZ3">
+      <c r="BX3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="CB3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="BA3">
+      <c r="CC3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="BB3">
+      <c r="CD3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CH3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="BC3">
+      <c r="CI3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="BD3">
+      <c r="CJ3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="CN3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="BE3">
+      <c r="CO3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="BF3">
+      <c r="CP3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="CT3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="BG3">
+      <c r="CU3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="BH3">
+      <c r="CV3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="CZ3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="BI3">
+      <c r="DA3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="BJ3">
+      <c r="DB3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="DF3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="BK3">
+      <c r="DG3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="BL3">
+      <c r="DH3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="DL3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="BM3">
+      <c r="DM3" t="n">
         <v>254385.938655425</v>
       </c>
+      <c r="DN3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="DR3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:66">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Natural Gas</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>650</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>718</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>771</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>762</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>951</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>1130</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>1381</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1464</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1711</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1681</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1520</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>2222</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>2957</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>3401</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>4141</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>4950</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>7075</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>7968</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>9250</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>11172</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>12770</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>14442</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>16116</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>16340</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>17337</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>18090</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>18632</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>21513</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>22489</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>26885</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>27860</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>28037</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>29964</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>30906</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>30775</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>36390</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>37600</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>37600</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
+        <v>37600</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>37600</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>37600</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>37600</v>
+      </c>
+      <c r="AR4" t="n">
         <v>39800</v>
       </c>
-      <c r="AO4">
+      <c r="AS4" t="n">
         <v>39800</v>
       </c>
-      <c r="AP4">
+      <c r="AT4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="AX4" t="n">
         <v>32989</v>
       </c>
-      <c r="AQ4">
+      <c r="AY4" t="n">
         <v>32989</v>
       </c>
-      <c r="AR4">
+      <c r="AZ4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BD4" t="n">
         <v>59410</v>
       </c>
-      <c r="AS4">
+      <c r="BE4" t="n">
         <v>59410</v>
       </c>
-      <c r="AT4">
+      <c r="BF4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="AU4">
+      <c r="BK4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="AV4">
+      <c r="BL4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BP4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="AW4">
+      <c r="BQ4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="AX4">
+      <c r="BR4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="BV4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="AY4">
+      <c r="BW4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="AZ4">
+      <c r="BX4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="CB4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="BA4">
+      <c r="CC4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="BB4">
+      <c r="CD4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CH4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="BC4">
+      <c r="CI4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="BD4">
+      <c r="CJ4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="CN4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="BE4">
+      <c r="CO4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="BF4">
+      <c r="CP4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="CT4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="BG4">
+      <c r="CU4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="BH4">
+      <c r="CV4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="BI4">
+      <c r="DA4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="BJ4">
+      <c r="DB4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="DF4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="BK4">
+      <c r="DG4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="BL4">
+      <c r="DH4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="DL4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="BM4">
+      <c r="DM4" t="n">
         <v>64143.2120090671</v>
       </c>
+      <c r="DN4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="DR4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:66">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>43724</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>47073</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>49088</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>50246</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>52632</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>60246</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>66639</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>69255</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>77293</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>78084</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>82367</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>90245</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>95589</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>102344</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>114068</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>123099</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>135952</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>145613</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>160196</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>175419</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>190357</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>207645</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>220674</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>238569</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>259629</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>277029</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>280146</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>296749</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>309734</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>312841</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>316600</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>322459</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>339598</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>360937</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>386134</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>118818</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>455749</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>455749</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
+        <v>455749</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>455749</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>455749</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>455749</v>
+      </c>
+      <c r="AR5" t="n">
         <v>501977</v>
       </c>
-      <c r="AO5">
+      <c r="AS5" t="n">
         <v>501977</v>
       </c>
-      <c r="AP5">
+      <c r="AT5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="AX5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="AQ5">
+      <c r="AY5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="AR5">
+      <c r="AZ5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BD5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="AS5">
+      <c r="BE5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="AT5">
+      <c r="BF5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>694392</v>
       </c>
-      <c r="AU5">
+      <c r="BK5" t="n">
         <v>694392</v>
       </c>
-      <c r="AV5">
+      <c r="BL5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BP5" t="n">
         <v>785194</v>
       </c>
-      <c r="AW5">
+      <c r="BQ5" t="n">
         <v>785194</v>
       </c>
-      <c r="AX5">
+      <c r="BR5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="BV5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="AY5">
+      <c r="BW5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="AZ5">
+      <c r="BX5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="CB5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="BA5">
+      <c r="CC5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="BB5">
+      <c r="CD5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CH5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="BC5">
+      <c r="CI5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="BD5">
+      <c r="CJ5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="CN5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="BE5">
+      <c r="CO5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="BF5">
+      <c r="CP5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="CT5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="BG5">
+      <c r="CU5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="BH5">
+      <c r="CV5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="BI5">
+      <c r="DA5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="BJ5">
+      <c r="DB5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="DF5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="BK5">
+      <c r="DG5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="BL5">
+      <c r="DH5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="DL5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="BM5">
+      <c r="DM5" t="n">
         <v>1291493.75212208</v>
       </c>
+      <c r="DN5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="DR5" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR5"/>
+  <dimension ref="A1:ET5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,400 +579,540 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1111,10 +1251,10 @@
         <v>462350</v>
       </c>
       <c r="AR2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AS2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AT2" t="n">
         <v>502820</v>
@@ -1129,16 +1269,16 @@
         <v>502820</v>
       </c>
       <c r="AX2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="AY2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="AZ2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="BA2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="BB2" t="n">
         <v>549567</v>
@@ -1147,204 +1287,288 @@
         <v>549567</v>
       </c>
       <c r="BD2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>587810</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BK2" t="n">
         <v>587810</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BL2" t="n">
         <v>587810</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BM2" t="n">
         <v>587810</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BN2" t="n">
         <v>587810</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BO2" t="n">
         <v>587810</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BP2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="BR2" t="n">
         <v>593004</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BS2" t="n">
         <v>593004</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BT2" t="n">
         <v>593004</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BU2" t="n">
         <v>593004</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BV2" t="n">
         <v>593004</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BW2" t="n">
         <v>593004</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="BZ2" t="n">
         <v>638734</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CA2" t="n">
         <v>638734</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CB2" t="n">
         <v>638734</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CC2" t="n">
         <v>638734</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CD2" t="n">
         <v>638734</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CE2" t="n">
         <v>638734</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CF2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="CH2" t="n">
         <v>713389</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CI2" t="n">
         <v>713389</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CJ2" t="n">
         <v>713389</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CK2" t="n">
         <v>713389</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CL2" t="n">
         <v>713389</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CM2" t="n">
         <v>713389</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CN2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="CP2" t="n">
         <v>739342</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CQ2" t="n">
         <v>739342</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CR2" t="n">
         <v>739342</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CS2" t="n">
         <v>739342</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CT2" t="n">
         <v>739342</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CU2" t="n">
         <v>739342</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CV2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CX2" t="n">
         <v>822131</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CY2" t="n">
         <v>822131</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CZ2" t="n">
         <v>822131</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DA2" t="n">
         <v>822131</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DB2" t="n">
         <v>822131</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DC2" t="n">
         <v>822131</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DD2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="DF2" t="n">
         <v>836727</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DG2" t="n">
         <v>836727</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DH2" t="n">
         <v>836727</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DI2" t="n">
         <v>836727</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DJ2" t="n">
         <v>836727</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DK2" t="n">
         <v>836727</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DL2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="DN2" t="n">
         <v>837220</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DO2" t="n">
         <v>837220</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DP2" t="n">
         <v>837220</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DQ2" t="n">
         <v>837220</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="DR2" t="n">
         <v>837220</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DS2" t="n">
         <v>837220</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DT2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="DV2" t="n">
         <v>898496</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DW2" t="n">
         <v>898496</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DX2" t="n">
         <v>898496</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DY2" t="n">
         <v>898496</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DZ2" t="n">
         <v>898496</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EA2" t="n">
         <v>898496</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EB2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="ED2" t="n">
         <v>968363</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EE2" t="n">
         <v>968363</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EF2" t="n">
         <v>968363</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EG2" t="n">
         <v>968363</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EH2" t="n">
         <v>968363</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EI2" t="n">
         <v>968363</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EJ2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="EL2" t="n">
         <v>942630</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="EM2" t="n">
         <v>942630</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="EN2" t="n">
         <v>942630</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="EO2" t="n">
         <v>942630</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="EP2" t="n">
         <v>942630</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EQ2" t="n">
         <v>942630</v>
       </c>
-      <c r="DR2" t="inlineStr"/>
+      <c r="ER2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="ET2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1479,10 +1703,10 @@
         <v>146550</v>
       </c>
       <c r="AR3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AS3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AT3" t="n">
         <v>156100</v>
@@ -1497,16 +1721,16 @@
         <v>156100</v>
       </c>
       <c r="AX3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="AY3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="AZ3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="BA3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="BB3" t="n">
         <v>160772</v>
@@ -1515,204 +1739,288 @@
         <v>160772</v>
       </c>
       <c r="BD3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>186550</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BK3" t="n">
         <v>186550</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BL3" t="n">
         <v>186550</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BM3" t="n">
         <v>186550</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BN3" t="n">
         <v>186550</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BO3" t="n">
         <v>186550</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BP3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="BR3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BS3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BT3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BU3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BV3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BW3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BX3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="BZ3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="CA3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="CB3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CC3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CD3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CE3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CF3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="CH3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CI3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CJ3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CK3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CL3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CM3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CN3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="CP3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CQ3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CR3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CS3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CT3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CU3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CV3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CX3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CY3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CZ3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="DA3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="DB3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DC3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="DD3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="DF3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="DG3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="DH3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="DI3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DJ3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="DK3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="DL3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="DN3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DO3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DP3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="DQ3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="DR3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DS3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DT3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="DV3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DW3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DX3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DY3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DZ3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="EA3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="EB3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="ED3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="EE3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="EF3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="EG3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="EH3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="EI3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="EJ3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="EL3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="EM3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="EN3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="EO3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="EP3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="EQ3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="DR3" t="inlineStr"/>
+      <c r="ER3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="ET3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1847,10 +2155,10 @@
         <v>37600</v>
       </c>
       <c r="AR4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AS4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AT4" t="n">
         <v>39800</v>
@@ -1865,16 +2173,16 @@
         <v>39800</v>
       </c>
       <c r="AX4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="AY4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="AZ4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="BA4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="BB4" t="n">
         <v>32989</v>
@@ -1883,204 +2191,288 @@
         <v>32989</v>
       </c>
       <c r="BD4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BJ4" t="n">
         <v>59410</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BK4" t="n">
         <v>59410</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BL4" t="n">
         <v>59410</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BM4" t="n">
         <v>59410</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BN4" t="n">
         <v>59410</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BO4" t="n">
         <v>59410</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BP4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="BR4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BS4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BT4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BU4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BV4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BW4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BX4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="BZ4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="CA4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CB4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CC4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CD4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CE4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CF4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="CH4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CI4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CJ4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CK4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CL4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CM4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CN4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="CP4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CQ4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CR4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CS4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CT4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CU4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CV4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CX4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CY4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CZ4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DA4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DB4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DC4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="DD4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="DF4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="DG4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DH4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DI4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="DJ4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="DK4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="DL4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="DN4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DO4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="DP4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="DQ4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="DR4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="DS4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DT4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="DV4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DW4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DX4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DY4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DZ4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="EA4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EB4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="ED4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EE4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="EF4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="EG4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="EH4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="EI4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="EJ4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="EL4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="EM4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="EN4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="EO4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="EP4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="EQ4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="DR4" t="inlineStr"/>
+      <c r="ER4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="ET4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2215,10 +2607,10 @@
         <v>455749</v>
       </c>
       <c r="AR5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AS5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AT5" t="n">
         <v>501977</v>
@@ -2233,16 +2625,16 @@
         <v>501977</v>
       </c>
       <c r="AX5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="AY5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="AZ5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="BA5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="BB5" t="n">
         <v>553994.713100625</v>
@@ -2251,204 +2643,288 @@
         <v>553994.713100625</v>
       </c>
       <c r="BD5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BK5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BL5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BM5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BN5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BO5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BP5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="BR5" t="n">
         <v>694392</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BS5" t="n">
         <v>694392</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BT5" t="n">
         <v>694392</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BU5" t="n">
         <v>694392</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BV5" t="n">
         <v>694392</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BW5" t="n">
         <v>694392</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BX5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="BZ5" t="n">
         <v>785194</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CA5" t="n">
         <v>785194</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CB5" t="n">
         <v>785194</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CC5" t="n">
         <v>785194</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CD5" t="n">
         <v>785194</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CE5" t="n">
         <v>785194</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CF5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="CH5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CI5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CJ5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CK5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CL5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CM5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CN5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="CP5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CQ5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CR5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CS5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CT5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CU5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CV5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CX5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CY5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CZ5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DA5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DB5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DC5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="DD5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="DF5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="DG5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DH5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DI5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="DJ5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="DK5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="DL5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="DN5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DO5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="DP5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="DQ5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="DR5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="DS5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DT5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="DV5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DW5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DX5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DY5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DZ5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="EA5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="EB5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="ED5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="EE5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="EF5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="EG5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="EH5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="EI5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="EJ5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="EL5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="EM5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="EN5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="EO5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="EP5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="EQ5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="DR5" t="inlineStr"/>
+      <c r="ER5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="ET5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET5"/>
+  <dimension ref="A1:FH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,530 +589,600 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1257,7 +1327,7 @@
         <v>462350</v>
       </c>
       <c r="AT2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AU2" t="n">
         <v>502820</v>
@@ -1281,10 +1351,10 @@
         <v>502820</v>
       </c>
       <c r="BB2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="BC2" t="n">
-        <v>549567</v>
+        <v>502820</v>
       </c>
       <c r="BD2" t="n">
         <v>549567</v>
@@ -1305,13 +1375,13 @@
         <v>549567</v>
       </c>
       <c r="BJ2" t="n">
-        <v>587810</v>
+        <v>549567</v>
       </c>
       <c r="BK2" t="n">
-        <v>587810</v>
+        <v>549567</v>
       </c>
       <c r="BL2" t="n">
-        <v>587810</v>
+        <v>549567</v>
       </c>
       <c r="BM2" t="n">
         <v>587810</v>
@@ -1329,16 +1399,16 @@
         <v>587810</v>
       </c>
       <c r="BR2" t="n">
-        <v>593004</v>
+        <v>587810</v>
       </c>
       <c r="BS2" t="n">
-        <v>593004</v>
+        <v>587810</v>
       </c>
       <c r="BT2" t="n">
-        <v>593004</v>
+        <v>587810</v>
       </c>
       <c r="BU2" t="n">
-        <v>593004</v>
+        <v>587810</v>
       </c>
       <c r="BV2" t="n">
         <v>593004</v>
@@ -1353,19 +1423,19 @@
         <v>593004</v>
       </c>
       <c r="BZ2" t="n">
-        <v>638734</v>
+        <v>593004</v>
       </c>
       <c r="CA2" t="n">
-        <v>638734</v>
+        <v>593004</v>
       </c>
       <c r="CB2" t="n">
-        <v>638734</v>
+        <v>593004</v>
       </c>
       <c r="CC2" t="n">
-        <v>638734</v>
+        <v>593004</v>
       </c>
       <c r="CD2" t="n">
-        <v>638734</v>
+        <v>593004</v>
       </c>
       <c r="CE2" t="n">
         <v>638734</v>
@@ -1377,22 +1447,22 @@
         <v>638734</v>
       </c>
       <c r="CH2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CI2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CJ2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CK2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CL2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CM2" t="n">
-        <v>713389</v>
+        <v>638734</v>
       </c>
       <c r="CN2" t="n">
         <v>713389</v>
@@ -1401,174 +1471,216 @@
         <v>713389</v>
       </c>
       <c r="CP2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CQ2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CR2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CS2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CT2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CU2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CV2" t="n">
-        <v>739342</v>
+        <v>713389</v>
       </c>
       <c r="CW2" t="n">
         <v>739342</v>
       </c>
       <c r="CX2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="DF2" t="n">
         <v>822131</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="DG2" t="n">
         <v>822131</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DH2" t="n">
         <v>822131</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DI2" t="n">
         <v>822131</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DJ2" t="n">
         <v>822131</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DK2" t="n">
         <v>822131</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DL2" t="n">
         <v>822131</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DM2" t="n">
         <v>822131</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DN2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="DO2" t="n">
         <v>836727</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DP2" t="n">
         <v>836727</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DQ2" t="n">
         <v>836727</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DR2" t="n">
         <v>836727</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DS2" t="n">
         <v>836727</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DT2" t="n">
         <v>836727</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DU2" t="n">
         <v>836727</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DV2" t="n">
         <v>836727</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DW2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="DX2" t="n">
         <v>837220</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DY2" t="n">
         <v>837220</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DZ2" t="n">
         <v>837220</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="EA2" t="n">
         <v>837220</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="EB2" t="n">
         <v>837220</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="EC2" t="n">
         <v>837220</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="ED2" t="n">
         <v>837220</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="EE2" t="n">
         <v>837220</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="EF2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="EG2" t="n">
         <v>898496</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="EH2" t="n">
         <v>898496</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="EI2" t="n">
         <v>898496</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EJ2" t="n">
         <v>898496</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EK2" t="n">
         <v>898496</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EL2" t="n">
         <v>898496</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EM2" t="n">
         <v>898496</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EN2" t="n">
         <v>898496</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EO2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="EP2" t="n">
         <v>968363</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EQ2" t="n">
         <v>968363</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="ER2" t="n">
         <v>968363</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="ES2" t="n">
         <v>968363</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="ET2" t="n">
         <v>968363</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EU2" t="n">
         <v>968363</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EV2" t="n">
         <v>968363</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EW2" t="n">
         <v>968363</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EX2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="EY2" t="n">
         <v>942630</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EZ2" t="n">
         <v>942630</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="FA2" t="n">
         <v>942630</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="FB2" t="n">
         <v>942630</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="FC2" t="n">
         <v>942630</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="FD2" t="n">
         <v>942630</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="FE2" t="n">
         <v>942630</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="FF2" t="n">
         <v>942630</v>
       </c>
-      <c r="ET2" t="inlineStr"/>
+      <c r="FG2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="FH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1709,7 +1821,7 @@
         <v>146550</v>
       </c>
       <c r="AT3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AU3" t="n">
         <v>156100</v>
@@ -1733,10 +1845,10 @@
         <v>156100</v>
       </c>
       <c r="BB3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="BC3" t="n">
-        <v>160772</v>
+        <v>156100</v>
       </c>
       <c r="BD3" t="n">
         <v>160772</v>
@@ -1757,13 +1869,13 @@
         <v>160772</v>
       </c>
       <c r="BJ3" t="n">
-        <v>186550</v>
+        <v>160772</v>
       </c>
       <c r="BK3" t="n">
-        <v>186550</v>
+        <v>160772</v>
       </c>
       <c r="BL3" t="n">
-        <v>186550</v>
+        <v>160772</v>
       </c>
       <c r="BM3" t="n">
         <v>186550</v>
@@ -1781,16 +1893,16 @@
         <v>186550</v>
       </c>
       <c r="BR3" t="n">
-        <v>196989.166</v>
+        <v>186550</v>
       </c>
       <c r="BS3" t="n">
-        <v>196989.166</v>
+        <v>186550</v>
       </c>
       <c r="BT3" t="n">
-        <v>196989.166</v>
+        <v>186550</v>
       </c>
       <c r="BU3" t="n">
-        <v>196989.166</v>
+        <v>186550</v>
       </c>
       <c r="BV3" t="n">
         <v>196989.166</v>
@@ -1805,19 +1917,19 @@
         <v>196989.166</v>
       </c>
       <c r="BZ3" t="n">
-        <v>204121.392</v>
+        <v>196989.166</v>
       </c>
       <c r="CA3" t="n">
-        <v>204121.392</v>
+        <v>196989.166</v>
       </c>
       <c r="CB3" t="n">
-        <v>204121.392</v>
+        <v>196989.166</v>
       </c>
       <c r="CC3" t="n">
-        <v>204121.392</v>
+        <v>196989.166</v>
       </c>
       <c r="CD3" t="n">
-        <v>204121.392</v>
+        <v>196989.166</v>
       </c>
       <c r="CE3" t="n">
         <v>204121.392</v>
@@ -1829,22 +1941,22 @@
         <v>204121.392</v>
       </c>
       <c r="CH3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CI3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CJ3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CK3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CL3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CM3" t="n">
-        <v>219211.779</v>
+        <v>204121.392</v>
       </c>
       <c r="CN3" t="n">
         <v>219211.779</v>
@@ -1853,174 +1965,216 @@
         <v>219211.779</v>
       </c>
       <c r="CP3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CQ3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CR3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CS3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CT3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CU3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CV3" t="n">
-        <v>222496.782</v>
+        <v>219211.779</v>
       </c>
       <c r="CW3" t="n">
         <v>222496.782</v>
       </c>
       <c r="CX3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="DF3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="DG3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DH3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DI3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DJ3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DK3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DL3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DM3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DN3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="DO3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DP3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DQ3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DR3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DS3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DT3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DU3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DV3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DW3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="DX3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DY3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DZ3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="EA3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="EB3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="EC3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="ED3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="EE3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="EF3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="EG3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="EH3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="EI3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EJ3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EK3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EL3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EM3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EN3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EO3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="EP3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EQ3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="ER3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="ES3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="ET3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EU3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EV3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EW3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EX3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="EY3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EZ3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="FA3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="FB3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="FC3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="FD3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="FE3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="FF3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="ET3" t="inlineStr"/>
+      <c r="FG3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="FH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2161,7 +2315,7 @@
         <v>37600</v>
       </c>
       <c r="AT4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AU4" t="n">
         <v>39800</v>
@@ -2185,10 +2339,10 @@
         <v>39800</v>
       </c>
       <c r="BB4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="BC4" t="n">
-        <v>32989</v>
+        <v>39800</v>
       </c>
       <c r="BD4" t="n">
         <v>32989</v>
@@ -2209,13 +2363,13 @@
         <v>32989</v>
       </c>
       <c r="BJ4" t="n">
-        <v>59410</v>
+        <v>32989</v>
       </c>
       <c r="BK4" t="n">
-        <v>59410</v>
+        <v>32989</v>
       </c>
       <c r="BL4" t="n">
-        <v>59410</v>
+        <v>32989</v>
       </c>
       <c r="BM4" t="n">
         <v>59410</v>
@@ -2233,16 +2387,16 @@
         <v>59410</v>
       </c>
       <c r="BR4" t="n">
-        <v>64159.29</v>
+        <v>59410</v>
       </c>
       <c r="BS4" t="n">
-        <v>64159.29</v>
+        <v>59410</v>
       </c>
       <c r="BT4" t="n">
-        <v>64159.29</v>
+        <v>59410</v>
       </c>
       <c r="BU4" t="n">
-        <v>64159.29</v>
+        <v>59410</v>
       </c>
       <c r="BV4" t="n">
         <v>64159.29</v>
@@ -2257,19 +2411,19 @@
         <v>64159.29</v>
       </c>
       <c r="BZ4" t="n">
-        <v>64450.3336248702</v>
+        <v>64159.29</v>
       </c>
       <c r="CA4" t="n">
-        <v>64450.3336248702</v>
+        <v>64159.29</v>
       </c>
       <c r="CB4" t="n">
-        <v>64450.3336248702</v>
+        <v>64159.29</v>
       </c>
       <c r="CC4" t="n">
-        <v>64450.3336248702</v>
+        <v>64159.29</v>
       </c>
       <c r="CD4" t="n">
-        <v>64450.3336248702</v>
+        <v>64159.29</v>
       </c>
       <c r="CE4" t="n">
         <v>64450.3336248702</v>
@@ -2281,22 +2435,22 @@
         <v>64450.3336248702</v>
       </c>
       <c r="CH4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CI4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CJ4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CK4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CL4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CM4" t="n">
-        <v>57364.2365398185</v>
+        <v>64450.3336248702</v>
       </c>
       <c r="CN4" t="n">
         <v>57364.2365398185</v>
@@ -2305,174 +2459,216 @@
         <v>57364.2365398185</v>
       </c>
       <c r="CP4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CQ4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CR4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CS4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CT4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CU4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CV4" t="n">
-        <v>52371.5768022769</v>
+        <v>57364.2365398185</v>
       </c>
       <c r="CW4" t="n">
         <v>52371.5768022769</v>
       </c>
       <c r="CX4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="DF4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="DG4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="DH4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DI4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DJ4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DK4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DL4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DM4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DN4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="DO4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DP4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DQ4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DR4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DS4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DT4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DU4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DV4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DW4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="DX4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DY4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DZ4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="EA4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="EB4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="EC4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="ED4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="EE4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="EF4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="EG4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="EH4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="EI4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EJ4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EK4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EL4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EM4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EN4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EO4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="EP4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EQ4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="ER4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="ES4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="ET4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EU4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EV4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EW4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EX4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="EY4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EZ4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="FA4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="FB4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="FC4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="FD4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="FE4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="FF4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="ET4" t="inlineStr"/>
+      <c r="FG4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="FH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2613,7 +2809,7 @@
         <v>455749</v>
       </c>
       <c r="AT5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AU5" t="n">
         <v>501977</v>
@@ -2637,10 +2833,10 @@
         <v>501977</v>
       </c>
       <c r="BB5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="BC5" t="n">
-        <v>553994.713100625</v>
+        <v>501977</v>
       </c>
       <c r="BD5" t="n">
         <v>553994.713100625</v>
@@ -2661,13 +2857,13 @@
         <v>553994.713100625</v>
       </c>
       <c r="BJ5" t="n">
-        <v>612644.99</v>
+        <v>553994.713100625</v>
       </c>
       <c r="BK5" t="n">
-        <v>612644.99</v>
+        <v>553994.713100625</v>
       </c>
       <c r="BL5" t="n">
-        <v>612644.99</v>
+        <v>553994.713100625</v>
       </c>
       <c r="BM5" t="n">
         <v>612644.99</v>
@@ -2685,16 +2881,16 @@
         <v>612644.99</v>
       </c>
       <c r="BR5" t="n">
-        <v>694392</v>
+        <v>612644.99</v>
       </c>
       <c r="BS5" t="n">
-        <v>694392</v>
+        <v>612644.99</v>
       </c>
       <c r="BT5" t="n">
-        <v>694392</v>
+        <v>612644.99</v>
       </c>
       <c r="BU5" t="n">
-        <v>694392</v>
+        <v>612644.99</v>
       </c>
       <c r="BV5" t="n">
         <v>694392</v>
@@ -2709,19 +2905,19 @@
         <v>694392</v>
       </c>
       <c r="BZ5" t="n">
-        <v>785194</v>
+        <v>694392</v>
       </c>
       <c r="CA5" t="n">
-        <v>785194</v>
+        <v>694392</v>
       </c>
       <c r="CB5" t="n">
-        <v>785194</v>
+        <v>694392</v>
       </c>
       <c r="CC5" t="n">
-        <v>785194</v>
+        <v>694392</v>
       </c>
       <c r="CD5" t="n">
-        <v>785194</v>
+        <v>694392</v>
       </c>
       <c r="CE5" t="n">
         <v>785194</v>
@@ -2733,22 +2929,22 @@
         <v>785194</v>
       </c>
       <c r="CH5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CI5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CJ5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CK5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CL5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CM5" t="n">
-        <v>824300.99</v>
+        <v>785194</v>
       </c>
       <c r="CN5" t="n">
         <v>824300.99</v>
@@ -2757,174 +2953,216 @@
         <v>824300.99</v>
       </c>
       <c r="CP5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CQ5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CR5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CS5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CT5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CU5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CV5" t="n">
-        <v>874208.5665</v>
+        <v>824300.99</v>
       </c>
       <c r="CW5" t="n">
         <v>874208.5665</v>
       </c>
       <c r="CX5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="DF5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="DG5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DH5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DI5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DJ5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DK5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DL5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DM5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DN5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="DO5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DP5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DQ5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DR5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DS5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DT5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DU5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DV5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DW5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="DX5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DY5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DZ5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="EA5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="EB5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="EC5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="ED5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="EE5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="EF5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="EG5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="EH5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="EI5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EJ5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EK5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EL5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EM5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EN5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EO5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="EP5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EQ5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="ER5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="ES5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="ET5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EU5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EV5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EW5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EX5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="EY5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EZ5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="FA5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="FB5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="FC5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="FD5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="FE5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="FF5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="ET5" t="inlineStr"/>
+      <c r="FG5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="FH5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/KAPSARC/TCCSE_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH5"/>
+  <dimension ref="A1:HZ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,595 +594,945 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>2006-01-01</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>2007-01-01</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>2008-01-01</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>2009-01-01</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>2010-01-01</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>2011-01-01</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>2012-01-01</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>2013-01-01</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>2014-01-01</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>2015-01-01</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>2016-01-01</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>2019-01-01</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -1330,19 +1680,19 @@
         <v>462350</v>
       </c>
       <c r="AU2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AV2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AW2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AX2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AY2" t="n">
-        <v>502820</v>
+        <v>462350</v>
       </c>
       <c r="AZ2" t="n">
         <v>502820</v>
@@ -1357,330 +1707,540 @@
         <v>502820</v>
       </c>
       <c r="BD2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>502820</v>
+      </c>
+      <c r="BN2" t="n">
         <v>549567</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BO2" t="n">
         <v>549567</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BP2" t="n">
         <v>549567</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BQ2" t="n">
         <v>549567</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BR2" t="n">
         <v>549567</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BS2" t="n">
         <v>549567</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BT2" t="n">
         <v>549567</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BU2" t="n">
         <v>549567</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BV2" t="n">
         <v>549567</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BW2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>549567</v>
+      </c>
+      <c r="CB2" t="n">
         <v>587810</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="CC2" t="n">
         <v>587810</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="CD2" t="n">
         <v>587810</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="CE2" t="n">
         <v>587810</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="CF2" t="n">
         <v>587810</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="CG2" t="n">
         <v>587810</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CH2" t="n">
         <v>587810</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CI2" t="n">
         <v>587810</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CJ2" t="n">
         <v>587810</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CK2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>587810</v>
+      </c>
+      <c r="CP2" t="n">
         <v>593004</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CQ2" t="n">
         <v>593004</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CR2" t="n">
         <v>593004</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CS2" t="n">
         <v>593004</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CT2" t="n">
         <v>593004</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CU2" t="n">
         <v>593004</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CV2" t="n">
         <v>593004</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CW2" t="n">
         <v>593004</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CX2" t="n">
         <v>593004</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CY2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>593004</v>
+      </c>
+      <c r="DD2" t="n">
         <v>638734</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="DE2" t="n">
         <v>638734</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="DF2" t="n">
         <v>638734</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="DG2" t="n">
         <v>638734</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="DH2" t="n">
         <v>638734</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="DI2" t="n">
         <v>638734</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="DJ2" t="n">
         <v>638734</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="DK2" t="n">
         <v>638734</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="DL2" t="n">
         <v>638734</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="DM2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>638734</v>
+      </c>
+      <c r="DR2" t="n">
         <v>713389</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="DS2" t="n">
         <v>713389</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="DT2" t="n">
         <v>713389</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="DU2" t="n">
         <v>713389</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="DV2" t="n">
         <v>713389</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="DW2" t="n">
         <v>713389</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="DX2" t="n">
         <v>713389</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DY2" t="n">
         <v>713389</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DZ2" t="n">
         <v>713389</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="EA2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>713389</v>
+      </c>
+      <c r="EF2" t="n">
         <v>739342</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="EG2" t="n">
         <v>739342</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="EH2" t="n">
         <v>739342</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="EI2" t="n">
         <v>739342</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="EJ2" t="n">
         <v>739342</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="EK2" t="n">
         <v>739342</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="EL2" t="n">
         <v>739342</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="EM2" t="n">
         <v>739342</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="EN2" t="n">
         <v>739342</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="EO2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>739342</v>
+      </c>
+      <c r="ET2" t="n">
         <v>822131</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="EU2" t="n">
         <v>822131</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="EV2" t="n">
         <v>822131</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="EW2" t="n">
         <v>822131</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="EX2" t="n">
         <v>822131</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="EY2" t="n">
         <v>822131</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="EZ2" t="n">
         <v>822131</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="FA2" t="n">
         <v>822131</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="FB2" t="n">
         <v>822131</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="FC2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>822131</v>
+      </c>
+      <c r="FH2" t="n">
         <v>836727</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="FI2" t="n">
         <v>836727</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="FJ2" t="n">
         <v>836727</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="FK2" t="n">
         <v>836727</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="FL2" t="n">
         <v>836727</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="FM2" t="n">
         <v>836727</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="FN2" t="n">
         <v>836727</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="FO2" t="n">
         <v>836727</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="FP2" t="n">
         <v>836727</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="FQ2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>836727</v>
+      </c>
+      <c r="FV2" t="n">
         <v>837220</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="FW2" t="n">
         <v>837220</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="FX2" t="n">
         <v>837220</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="FY2" t="n">
         <v>837220</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="FZ2" t="n">
         <v>837220</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="GA2" t="n">
         <v>837220</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="GB2" t="n">
         <v>837220</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="GC2" t="n">
         <v>837220</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="GD2" t="n">
         <v>837220</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="GE2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>837220</v>
+      </c>
+      <c r="GJ2" t="n">
         <v>898496</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="GK2" t="n">
         <v>898496</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="GL2" t="n">
         <v>898496</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="GM2" t="n">
         <v>898496</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="GN2" t="n">
         <v>898496</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="GO2" t="n">
         <v>898496</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="GP2" t="n">
         <v>898496</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="GQ2" t="n">
         <v>898496</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="GR2" t="n">
         <v>898496</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="GS2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>898496</v>
+      </c>
+      <c r="GX2" t="n">
         <v>968363</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="GY2" t="n">
         <v>968363</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="GZ2" t="n">
         <v>968363</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="HA2" t="n">
         <v>968363</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="HB2" t="n">
         <v>968363</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="HC2" t="n">
         <v>968363</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="HD2" t="n">
         <v>968363</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="HE2" t="n">
         <v>968363</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="HF2" t="n">
         <v>968363</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="HG2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>968363</v>
+      </c>
+      <c r="HL2" t="n">
         <v>942630</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="HM2" t="n">
         <v>942630</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="HN2" t="n">
         <v>942630</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="HO2" t="n">
         <v>942630</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="HP2" t="n">
         <v>942630</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="HQ2" t="n">
         <v>942630</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="HR2" t="n">
         <v>942630</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="HS2" t="n">
         <v>942630</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="HT2" t="n">
         <v>942630</v>
       </c>
-      <c r="FH2" t="inlineStr"/>
+      <c r="HU2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>942630</v>
+      </c>
+      <c r="HZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1824,19 +2384,19 @@
         <v>146550</v>
       </c>
       <c r="AU3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AV3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AW3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AX3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AY3" t="n">
-        <v>156100</v>
+        <v>146550</v>
       </c>
       <c r="AZ3" t="n">
         <v>156100</v>
@@ -1851,330 +2411,540 @@
         <v>156100</v>
       </c>
       <c r="BD3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>156100</v>
+      </c>
+      <c r="BN3" t="n">
         <v>160772</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BO3" t="n">
         <v>160772</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BP3" t="n">
         <v>160772</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BQ3" t="n">
         <v>160772</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BR3" t="n">
         <v>160772</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BS3" t="n">
         <v>160772</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BT3" t="n">
         <v>160772</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BU3" t="n">
         <v>160772</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BV3" t="n">
         <v>160772</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BW3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>160772</v>
+      </c>
+      <c r="CB3" t="n">
         <v>186550</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="CC3" t="n">
         <v>186550</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="CD3" t="n">
         <v>186550</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="CE3" t="n">
         <v>186550</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="CF3" t="n">
         <v>186550</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="CG3" t="n">
         <v>186550</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CH3" t="n">
         <v>186550</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CI3" t="n">
         <v>186550</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CJ3" t="n">
         <v>186550</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CK3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>186550</v>
+      </c>
+      <c r="CP3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CQ3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CR3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CS3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CT3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CU3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CV3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CW3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CX3" t="n">
         <v>196989.166</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CY3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>196989.166</v>
+      </c>
+      <c r="DD3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="DE3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="DF3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="DG3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="DH3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="DI3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="DJ3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="DK3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="DL3" t="n">
         <v>204121.392</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="DM3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>204121.392</v>
+      </c>
+      <c r="DR3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="DS3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="DT3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="DU3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DV3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="DW3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="DX3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DY3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DZ3" t="n">
         <v>219211.779</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="EA3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>219211.779</v>
+      </c>
+      <c r="EF3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="EG3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="EH3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="EI3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="EJ3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="EK3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="EL3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="EM3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="EN3" t="n">
         <v>222496.782</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="EO3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>222496.782</v>
+      </c>
+      <c r="ET3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="EU3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="EV3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="EW3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="EX3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="EY3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="EZ3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="FA3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="FB3" t="n">
         <v>223241.778</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="FC3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>223241.778</v>
+      </c>
+      <c r="FH3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="FI3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="FJ3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="FK3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="FL3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="FM3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="FN3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="FO3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="FP3" t="n">
         <v>232864.798</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="FQ3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>232864.798</v>
+      </c>
+      <c r="FV3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="FW3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="FX3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="FY3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="FZ3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="GA3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="GB3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="GC3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="GD3" t="n">
         <v>245362.119</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="GE3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>245362.119</v>
+      </c>
+      <c r="GJ3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="GK3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="GL3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="GM3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="GN3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="GO3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="GP3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="GQ3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="GR3" t="n">
         <v>251934.819</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="GS3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>251934.819</v>
+      </c>
+      <c r="GX3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="GY3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="GZ3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="HA3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="HB3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="HC3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="HD3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="HE3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="HF3" t="n">
         <v>257204.86</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="HG3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>257204.86</v>
+      </c>
+      <c r="HL3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="HM3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="HN3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="HO3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="HP3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="HQ3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="HR3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="HS3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="HT3" t="n">
         <v>254385.938655425</v>
       </c>
-      <c r="FH3" t="inlineStr"/>
+      <c r="HU3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>254385.938655425</v>
+      </c>
+      <c r="HZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2318,19 +3088,19 @@
         <v>37600</v>
       </c>
       <c r="AU4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AV4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AW4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AX4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AY4" t="n">
-        <v>39800</v>
+        <v>37600</v>
       </c>
       <c r="AZ4" t="n">
         <v>39800</v>
@@ -2345,330 +3115,540 @@
         <v>39800</v>
       </c>
       <c r="BD4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>39800</v>
+      </c>
+      <c r="BN4" t="n">
         <v>32989</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BO4" t="n">
         <v>32989</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BP4" t="n">
         <v>32989</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BQ4" t="n">
         <v>32989</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BR4" t="n">
         <v>32989</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BS4" t="n">
         <v>32989</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BT4" t="n">
         <v>32989</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BU4" t="n">
         <v>32989</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BV4" t="n">
         <v>32989</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BW4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>32989</v>
+      </c>
+      <c r="CB4" t="n">
         <v>59410</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="CC4" t="n">
         <v>59410</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="CD4" t="n">
         <v>59410</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="CE4" t="n">
         <v>59410</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="CF4" t="n">
         <v>59410</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="CG4" t="n">
         <v>59410</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CH4" t="n">
         <v>59410</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CI4" t="n">
         <v>59410</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CJ4" t="n">
         <v>59410</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CK4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>59410</v>
+      </c>
+      <c r="CP4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CQ4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CR4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CS4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CT4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CU4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CV4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CW4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CX4" t="n">
         <v>64159.29</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CY4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>64159.29</v>
+      </c>
+      <c r="DD4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="DE4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="DF4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="DG4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="DH4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="DI4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="DJ4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="DK4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="DL4" t="n">
         <v>64450.3336248702</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="DM4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>64450.3336248702</v>
+      </c>
+      <c r="DR4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="DS4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="DT4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="DU4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="DV4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="DW4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="DX4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DY4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="DZ4" t="n">
         <v>57364.2365398185</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="EA4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>57364.2365398185</v>
+      </c>
+      <c r="EF4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="EG4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="EH4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="EI4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="EJ4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="EK4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="EL4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="EM4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="EN4" t="n">
         <v>52371.5768022769</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="EO4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="EQ4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="ER4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>52371.5768022769</v>
+      </c>
+      <c r="ET4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="EU4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="EV4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="EW4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="EX4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="EY4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="EZ4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="FA4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="FB4" t="n">
         <v>51295.7258153303</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="FC4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="FF4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>51295.7258153303</v>
+      </c>
+      <c r="FH4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="FI4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="FJ4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="FK4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="FL4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="FM4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="FN4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="FO4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="FP4" t="n">
         <v>52512.8551574423</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="FQ4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>52512.8551574423</v>
+      </c>
+      <c r="FV4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="FW4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="FX4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="FY4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="FZ4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="GA4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="GB4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="GC4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="GD4" t="n">
         <v>55697.9176189682</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="GE4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="GF4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="GG4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="GH4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="GI4" t="n">
+        <v>55697.9176189682</v>
+      </c>
+      <c r="GJ4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="GK4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="GL4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="GM4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="GN4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="GO4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="GP4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="GQ4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="GR4" t="n">
         <v>59170.1564660069</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="GS4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>59170.1564660069</v>
+      </c>
+      <c r="GX4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="GY4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="GZ4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="HA4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="HB4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="HC4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="HD4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="HE4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="HF4" t="n">
         <v>60794.3879625495</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="HG4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>60794.3879625495</v>
+      </c>
+      <c r="HL4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="HM4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="HN4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="HO4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="HP4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="HQ4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="HR4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="HS4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="HT4" t="n">
         <v>64143.2120090671</v>
       </c>
-      <c r="FH4" t="inlineStr"/>
+      <c r="HU4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>64143.2120090671</v>
+      </c>
+      <c r="HZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2812,19 +3792,19 @@
         <v>455749</v>
       </c>
       <c r="AU5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AV5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AW5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AX5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AY5" t="n">
-        <v>501977</v>
+        <v>455749</v>
       </c>
       <c r="AZ5" t="n">
         <v>501977</v>
@@ -2839,330 +3819,540 @@
         <v>501977</v>
       </c>
       <c r="BD5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>501977</v>
+      </c>
+      <c r="BN5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BO5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BP5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BQ5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BR5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BS5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BT5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BU5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BV5" t="n">
         <v>553994.713100625</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BW5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>553994.713100625</v>
+      </c>
+      <c r="CB5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="CC5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="CD5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="CE5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="CF5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="CG5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CH5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CI5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CJ5" t="n">
         <v>612644.99</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CK5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>612644.99</v>
+      </c>
+      <c r="CP5" t="n">
         <v>694392</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CQ5" t="n">
         <v>694392</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CR5" t="n">
         <v>694392</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CS5" t="n">
         <v>694392</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CT5" t="n">
         <v>694392</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CU5" t="n">
         <v>694392</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CV5" t="n">
         <v>694392</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CW5" t="n">
         <v>694392</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CX5" t="n">
         <v>694392</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CY5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>694392</v>
+      </c>
+      <c r="DD5" t="n">
         <v>785194</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="DE5" t="n">
         <v>785194</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="DF5" t="n">
         <v>785194</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="DG5" t="n">
         <v>785194</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="DH5" t="n">
         <v>785194</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="DI5" t="n">
         <v>785194</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DJ5" t="n">
         <v>785194</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="DK5" t="n">
         <v>785194</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="DL5" t="n">
         <v>785194</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="DM5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>785194</v>
+      </c>
+      <c r="DR5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="DS5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="DT5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="DU5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="DV5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="DW5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="DX5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DY5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="DZ5" t="n">
         <v>824300.99</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="EA5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>824300.99</v>
+      </c>
+      <c r="EF5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="EG5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="EH5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="EI5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="EJ5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="EK5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="EL5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="EM5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="EN5" t="n">
         <v>874208.5665</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="EO5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="EQ5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>874208.5665</v>
+      </c>
+      <c r="ET5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="EU5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="EV5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="EW5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="EX5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="EY5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="EZ5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="FA5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="FB5" t="n">
         <v>948521.820861349</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="FC5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="FF5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>948521.820861349</v>
+      </c>
+      <c r="FH5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="FI5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="FJ5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="FK5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="FL5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="FM5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="FN5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="FO5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="FP5" t="n">
         <v>1001190.68430858</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="FQ5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="FR5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="FS5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="FT5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="FU5" t="n">
+        <v>1001190.68430858</v>
+      </c>
+      <c r="FV5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="FW5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="FX5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="FY5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="FZ5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="GA5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="GB5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="GC5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="GD5" t="n">
         <v>1061182.63826993</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="GE5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="GG5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="GH5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="GI5" t="n">
+        <v>1061182.63826993</v>
+      </c>
+      <c r="GJ5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="GK5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="GL5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="GM5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="GN5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="GO5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="GP5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="GQ5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="GR5" t="n">
         <v>1123426.8571124</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="GS5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="GT5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="GU5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="GV5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="GW5" t="n">
+        <v>1123426.8571124</v>
+      </c>
+      <c r="GX5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="GY5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="GZ5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="HA5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="HB5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="HC5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="HD5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="HE5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="HF5" t="n">
         <v>1209971.63286042</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="HG5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="HI5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="HJ5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="HK5" t="n">
+        <v>1209971.63286042</v>
+      </c>
+      <c r="HL5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="HM5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="HN5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="HO5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="HP5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="HQ5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="HR5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="HS5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="HT5" t="n">
         <v>1291493.75212208</v>
       </c>
-      <c r="FH5" t="inlineStr"/>
+      <c r="HU5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1291493.75212208</v>
+      </c>
+      <c r="HZ5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
